--- a/Data/EUDA/Tampon/sdf_deja_traite.xlsx
+++ b/Data/EUDA/Tampon/sdf_deja_traite.xlsx
@@ -441,32 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Stable accommodation.deja</t>
+          <t>Stable accommodation.deja.sdf</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unstable accommodation and/or homeless.deja</t>
+          <t>Unstable accommodation and/or homeless.deja.sdf</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>In detention.deja</t>
+          <t>In detention.deja.sdf</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Other.deja</t>
+          <t>Other.deja.sdf</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing.deja</t>
+          <t>Not known / missing.deja.sdf</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Total.deja</t>
+          <t>Total.deja.sdf</t>
         </is>
       </c>
     </row>
